--- a/doc/ModBus参数表—2017.9.17.xlsx
+++ b/doc/ModBus参数表—2017.9.17.xlsx
@@ -433,10 +433,10 @@
     <t>设定睡眠时间（单位s）</t>
   </si>
   <si>
+    <t>传感器个数</t>
+  </si>
+  <si>
     <t>电池电量</t>
-  </si>
-  <si>
-    <t>传感器个数</t>
   </si>
   <si>
     <t>控制灯的开启与关闭；1：开启红；2：关闭红；3：开启绿；4：关闭绿；5：开启黄；6：关闭黄</t>
@@ -495,14 +495,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,20 +521,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,59 +550,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,9 +579,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,7 +633,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,20 +677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -703,22 +688,9 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +759,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -799,169 +849,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,13 +1073,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,24 +1117,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,21 +1136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1214,167 +1151,172 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1394,9 +1336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,10 +1345,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,16 +1378,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,16 +1396,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,9 +1411,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1505,13 +1438,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,9 +1459,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,15 +1474,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,25 +1495,25 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1595,9 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,10 +1549,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,19 +1564,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2015,7 +1930,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2045,328 +1960,328 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10">
         <v>40003</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="71.25" spans="1:13">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21">
         <v>40003</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" ht="28.5" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>40004</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="F19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2374,20 +2289,20 @@
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="28">
         <v>40009</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>1</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2395,20 +2310,20 @@
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="28">
         <v>40010</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>1</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="F23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2416,20 +2331,20 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>6000</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2437,20 +2352,20 @@
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>0</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2458,20 +2373,20 @@
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="33">
         <v>40015</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2479,20 +2394,20 @@
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>40016</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="39">
         <v>20</v>
       </c>
-      <c r="F27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="43" t="s">
+      <c r="F27" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2500,20 +2415,20 @@
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="36">
         <v>40017</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="39">
         <v>5</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="43" t="s">
+      <c r="F28" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2521,20 +2436,20 @@
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="36">
         <v>40018</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="43" t="s">
+      <c r="F29" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2542,20 +2457,20 @@
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="36">
         <v>40019</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2563,126 +2478,126 @@
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="36">
         <v>40020</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="39">
         <v>3</v>
       </c>
-      <c r="F31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:14">
-      <c r="A32" s="10"/>
-      <c r="B32" s="45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="42">
         <v>40021</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="45">
         <v>0</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="50" t="s">
+      <c r="F32" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="75">
+      <c r="I32" s="69">
         <v>0</v>
       </c>
-      <c r="J32" s="75">
+      <c r="J32" s="69">
         <v>1</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="69">
         <v>2</v>
       </c>
-      <c r="L32" s="75">
+      <c r="L32" s="69">
         <v>3</v>
       </c>
-      <c r="M32" s="75">
+      <c r="M32" s="69">
         <v>4</v>
       </c>
-      <c r="N32" s="75">
+      <c r="N32" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:14">
-      <c r="A33" s="10"/>
-      <c r="B33" s="45">
+      <c r="A33" s="9"/>
+      <c r="B33" s="42">
         <v>40022</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47" t="s">
+      <c r="C33" s="43"/>
+      <c r="D33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="45">
         <v>0</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="50" t="s">
+      <c r="F33" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="87"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:14">
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="80"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="45">
         <v>0</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I34" s="69">
         <v>0</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="75" t="s">
+      <c r="K34" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="75" t="s">
+      <c r="M34" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="75" t="s">
+      <c r="N34" s="69" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2690,409 +2605,409 @@
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="45">
         <v>0.01</v>
       </c>
-      <c r="F35" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="50" t="s">
+      <c r="F35" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="75">
+      <c r="I35" s="69">
         <v>0</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="69">
         <v>1000000</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="69">
         <v>1000000</v>
       </c>
-      <c r="L35" s="75">
+      <c r="L35" s="69">
         <v>1000000</v>
       </c>
-      <c r="M35" s="75">
+      <c r="M35" s="69">
         <v>1000000</v>
       </c>
-      <c r="N35" s="75">
+      <c r="N35" s="69">
         <v>1000000</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:14">
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="51">
         <v>1000</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="92" t="s">
+      <c r="I36" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="54">
         <v>200000</v>
       </c>
-      <c r="F37" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="56" t="s">
+      <c r="F37" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="55">
         <v>40031</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="58">
         <v>32</v>
       </c>
-      <c r="F38" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="64" t="s">
+      <c r="F38" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="65">
+      <c r="A39" s="9"/>
+      <c r="B39" s="60">
         <v>40032</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="64" t="s">
+      <c r="E39" s="62"/>
+      <c r="F39" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="10"/>
-      <c r="B40" s="60" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="68" t="s">
+      <c r="C40" s="56"/>
+      <c r="D40" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="64" t="s">
+      <c r="E40" s="62"/>
+      <c r="F40" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="69"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="60" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="64" t="s">
+      <c r="E41" s="62"/>
+      <c r="F41" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="95"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="86"/>
     </row>
     <row r="42" ht="25.5" customHeight="1" spans="1:15">
       <c r="A42" s="4"/>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="51">
         <v>1</v>
       </c>
-      <c r="F42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="43" t="s">
+      <c r="F42" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
     </row>
     <row r="43" ht="36" customHeight="1" spans="1:15">
       <c r="A43" s="4"/>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="51">
         <v>1</v>
       </c>
-      <c r="F43" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="43" t="s">
+      <c r="F43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="95"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="86"/>
     </row>
     <row r="44" ht="36" customHeight="1" spans="1:15">
       <c r="A44" s="4"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72" t="s">
+      <c r="C44" s="66"/>
+      <c r="D44" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="51">
         <v>1</v>
       </c>
-      <c r="F44" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="43" t="s">
+      <c r="F44" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="95"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="86"/>
     </row>
     <row r="45" ht="36" customHeight="1" spans="1:15">
       <c r="A45" s="4"/>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="51">
         <v>1</v>
       </c>
-      <c r="F45" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="43" t="s">
+      <c r="F45" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="95"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="86"/>
     </row>
     <row r="46" ht="42.75" spans="1:15">
       <c r="A46" s="4"/>
-      <c r="B46" s="70">
+      <c r="B46" s="65">
         <v>40045</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72" t="s">
+      <c r="C46" s="66"/>
+      <c r="D46" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="43" t="s">
+      <c r="E46" s="68"/>
+      <c r="F46" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
     </row>
     <row r="47" ht="17.25" customHeight="1" spans="1:7">
       <c r="A47" s="4"/>
-      <c r="B47" s="70">
+      <c r="B47" s="65">
         <v>40046</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="68">
         <v>5</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="43" t="s">
+      <c r="F47" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:7">
       <c r="A48" s="4"/>
-      <c r="B48" s="70">
+      <c r="B48" s="65">
         <v>40047</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="43" t="s">
+      <c r="E48" s="68"/>
+      <c r="F48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:7">
       <c r="A49" s="4"/>
-      <c r="B49" s="70">
+      <c r="B49" s="65">
         <v>40048</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="74"/>
-      <c r="F49" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="43" t="s">
+      <c r="E49" s="68"/>
+      <c r="F49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" ht="28.5" spans="1:7">
       <c r="A50" s="4"/>
-      <c r="B50" s="70">
+      <c r="B50" s="65">
         <v>40049</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72" t="s">
+      <c r="C50" s="66"/>
+      <c r="D50" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="75">
+      <c r="E50" s="69">
         <v>0</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="43" t="s">
+      <c r="F50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:7">
       <c r="A51" s="4"/>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72" t="s">
+      <c r="C51" s="66"/>
+      <c r="D51" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="43" t="s">
+      <c r="E51" s="68"/>
+      <c r="F51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="71"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3105,26 +3020,26 @@
     </row>
     <row r="53" ht="18.75" customHeight="1" spans="1:7">
       <c r="A53" s="4"/>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="66"/>
+      <c r="D53" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="43" t="s">
+      <c r="E53" s="68"/>
+      <c r="F53" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="71"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
         <v>122</v>
       </c>
@@ -3137,85 +3052,85 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="71"/>
     </row>
     <row r="56" ht="28.5" spans="1:7">
-      <c r="A56" s="10"/>
-      <c r="B56" s="78">
+      <c r="A56" s="9"/>
+      <c r="B56" s="72">
         <v>40097</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80" t="s">
+      <c r="C56" s="73"/>
+      <c r="D56" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="75">
         <v>0</v>
       </c>
-      <c r="F56" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="82" t="s">
+      <c r="F56" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="76" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:8">
-      <c r="A57" s="10"/>
-      <c r="B57" s="78">
+      <c r="A57" s="9"/>
+      <c r="B57" s="72">
         <v>40098</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="80" t="s">
+      <c r="C57" s="73"/>
+      <c r="D57" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="82" t="s">
+      <c r="E57" s="77"/>
+      <c r="F57" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="78" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="10"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="80" t="s">
+      <c r="C58" s="73"/>
+      <c r="D58" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="83"/>
-      <c r="F58" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="82" t="s">
+      <c r="E58" s="77"/>
+      <c r="F58" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="85"/>
+      <c r="H58" s="78"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="75"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="69"/>
     </row>
     <row r="60" ht="140.25" customHeight="1" spans="1:7">
       <c r="A60" s="4"/>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="89"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="53">

--- a/doc/ModBus参数表—2017.9.17.xlsx
+++ b/doc/ModBus参数表—2017.9.17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="3" r:id="rId1"/>
@@ -495,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
@@ -542,7 +542,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,8 +571,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,61 +647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,16 +663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,22 +672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,157 +759,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,26 +1088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,17 +1127,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,25 +1170,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,131 +1188,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1648,7 +1648,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1929,8 +1929,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
